--- a/old_database/crypto/rnaSample/rnaSample_480.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_480.xlsx
@@ -43,7 +43,7 @@
     <t>03.05.11</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_480</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/rnaSample/rnaSample_480.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_480.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">03.05.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.GISH</t>
   </si>
   <si>
     <t xml:space="preserve">Retrofitted_480</t>
@@ -62,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,13 +95,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,16 +146,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,15 +172,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -210,7 +204,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -231,13 +225,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -254,13 +248,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,13 +271,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,13 +294,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -323,13 +317,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,13 +340,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,13 +363,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,13 +386,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,13 +409,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,13 +432,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,13 +455,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,16 +478,15 @@
         <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
